--- a/overige_bestanden/Planning1.xlsx
+++ b/overige_bestanden/Planning1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09832593-E34C-46B2-BB2B-4DD3F3DB5192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF71EF-1702-4CBE-AE5C-4839666D104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4545" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -938,23 +938,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -972,7 +972,37 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1099,15 +1129,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1522,11 +1552,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1573,7 @@
     <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
@@ -1557,7 +1587,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="85"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
@@ -1566,113 +1596,63 @@
       </c>
       <c r="I2" s="86"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="64"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
         <v>44958</v>
       </c>
-      <c r="F3" s="93"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44956</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44963</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44970</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
-        <f>AD5</f>
-        <v>44977</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
-        <f>AK5</f>
-        <v>44984</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
-        <f>AR5</f>
-        <v>44991</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
-        <f>AY5</f>
-        <v>44998</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
-        <f>BF5</f>
-        <v>45005</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+    </row>
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
@@ -1691,7 +1671,7 @@
         <v>44957</v>
       </c>
       <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <f t="shared" ref="K5:AC5" si="0">J5+1</f>
         <v>44958</v>
       </c>
       <c r="L5" s="10">
@@ -1766,148 +1746,8 @@
         <f t="shared" si="0"/>
         <v>44976</v>
       </c>
-      <c r="AD5" s="11">
-        <f>AC5+1</f>
-        <v>44977</v>
-      </c>
-      <c r="AE5" s="10">
-        <f>AD5+1</f>
-        <v>44978</v>
-      </c>
-      <c r="AF5" s="10">
-        <f t="shared" si="0"/>
-        <v>44979</v>
-      </c>
-      <c r="AG5" s="10">
-        <f t="shared" si="0"/>
-        <v>44980</v>
-      </c>
-      <c r="AH5" s="10">
-        <f t="shared" si="0"/>
-        <v>44981</v>
-      </c>
-      <c r="AI5" s="10">
-        <f t="shared" si="0"/>
-        <v>44982</v>
-      </c>
-      <c r="AJ5" s="12">
-        <f t="shared" si="0"/>
-        <v>44983</v>
-      </c>
-      <c r="AK5" s="11">
-        <f>AJ5+1</f>
-        <v>44984</v>
-      </c>
-      <c r="AL5" s="10">
-        <f>AK5+1</f>
-        <v>44985</v>
-      </c>
-      <c r="AM5" s="10">
-        <f t="shared" si="0"/>
-        <v>44986</v>
-      </c>
-      <c r="AN5" s="10">
-        <f t="shared" si="0"/>
-        <v>44987</v>
-      </c>
-      <c r="AO5" s="10">
-        <f t="shared" si="0"/>
-        <v>44988</v>
-      </c>
-      <c r="AP5" s="10">
-        <f t="shared" si="0"/>
-        <v>44989</v>
-      </c>
-      <c r="AQ5" s="12">
-        <f t="shared" si="0"/>
-        <v>44990</v>
-      </c>
-      <c r="AR5" s="11">
-        <f>AQ5+1</f>
-        <v>44991</v>
-      </c>
-      <c r="AS5" s="10">
-        <f>AR5+1</f>
-        <v>44992</v>
-      </c>
-      <c r="AT5" s="10">
-        <f t="shared" si="0"/>
-        <v>44993</v>
-      </c>
-      <c r="AU5" s="10">
-        <f t="shared" si="0"/>
-        <v>44994</v>
-      </c>
-      <c r="AV5" s="10">
-        <f t="shared" si="0"/>
-        <v>44995</v>
-      </c>
-      <c r="AW5" s="10">
-        <f t="shared" si="0"/>
-        <v>44996</v>
-      </c>
-      <c r="AX5" s="12">
-        <f t="shared" si="0"/>
-        <v>44997</v>
-      </c>
-      <c r="AY5" s="11">
-        <f>AX5+1</f>
-        <v>44998</v>
-      </c>
-      <c r="AZ5" s="10">
-        <f>AY5+1</f>
-        <v>44999</v>
-      </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45000</v>
-      </c>
-      <c r="BB5" s="10">
-        <f t="shared" si="1"/>
-        <v>45001</v>
-      </c>
-      <c r="BC5" s="10">
-        <f t="shared" si="1"/>
-        <v>45002</v>
-      </c>
-      <c r="BD5" s="10">
-        <f t="shared" si="1"/>
-        <v>45003</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" si="1"/>
-        <v>45004</v>
-      </c>
-      <c r="BF5" s="11">
-        <f>BE5+1</f>
-        <v>45005</v>
-      </c>
-      <c r="BG5" s="10">
-        <f>BF5+1</f>
-        <v>45006</v>
-      </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45007</v>
-      </c>
-      <c r="BI5" s="10">
-        <f t="shared" si="2"/>
-        <v>45008</v>
-      </c>
-      <c r="BJ5" s="10">
-        <f t="shared" si="2"/>
-        <v>45009</v>
-      </c>
-      <c r="BK5" s="10">
-        <f t="shared" si="2"/>
-        <v>45010</v>
-      </c>
-      <c r="BL5" s="12">
-        <f t="shared" si="2"/>
-        <v>45011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>31</v>
       </c>
@@ -1931,231 +1771,91 @@
         <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="1">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AC6" si="2">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AE6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AF6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AG6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AH6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="AI6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AJ6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AK6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AL6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AM6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>W</v>
-      </c>
-      <c r="AN6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>T</v>
-      </c>
-      <c r="AO6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>F</v>
-      </c>
-      <c r="AP6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AQ6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>S</v>
-      </c>
-      <c r="AR6" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>M</v>
-      </c>
-      <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
-        <v>T</v>
-      </c>
-      <c r="AT6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="AU6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="AV6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="AW6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AX6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="AY6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="AZ6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BA6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BB6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BC6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BD6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BE6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BF6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>M</v>
-      </c>
-      <c r="BG6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BH6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>W</v>
-      </c>
-      <c r="BI6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>T</v>
-      </c>
-      <c r="BJ6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>F</v>
-      </c>
-      <c r="BK6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-      <c r="BL6" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:29" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>36</v>
       </c>
@@ -2186,43 +1886,8 @@
       <c r="AA7" s="44"/>
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-    </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +1900,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H29" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H29" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2259,43 +1924,8 @@
       <c r="AA8" s="44"/>
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-    </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>37</v>
       </c>
@@ -2316,7 +1946,7 @@
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I9" s="44"/>
@@ -2340,43 +1970,8 @@
       <c r="AA9" s="44"/>
       <c r="AB9" s="44"/>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
-    </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>33</v>
       </c>
@@ -2398,7 +1993,7 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I10" s="44"/>
@@ -2422,43 +2017,8 @@
       <c r="AA10" s="44"/>
       <c r="AB10" s="44"/>
       <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-    </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>41</v>
@@ -2477,7 +2037,7 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I11" s="44"/>
@@ -2501,43 +2061,8 @@
       <c r="AA11" s="44"/>
       <c r="AB11" s="44"/>
       <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-    </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>34</v>
       </c>
@@ -2550,7 +2075,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="44"/>
@@ -2574,43 +2099,8 @@
       <c r="AA12" s="44"/>
       <c r="AB12" s="44"/>
       <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-    </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
       <c r="B13" s="80" t="s">
         <v>53</v>
@@ -2629,7 +2119,7 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" s="44"/>
@@ -2653,43 +2143,8 @@
       <c r="AA13" s="44"/>
       <c r="AB13" s="44"/>
       <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-    </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="80" t="s">
         <v>57</v>
@@ -2708,7 +2163,7 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I14" s="44"/>
@@ -2732,43 +2187,8 @@
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
       <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="44"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="44"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="44"/>
-    </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="80" t="s">
         <v>58</v>
@@ -2787,7 +2207,7 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I15" s="44"/>
@@ -2811,43 +2231,8 @@
       <c r="AA15" s="44"/>
       <c r="AB15" s="44"/>
       <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
-    </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>60</v>
@@ -2867,7 +2252,7 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I16" s="44"/>
@@ -2891,43 +2276,8 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="44"/>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
-      <c r="BA16" s="44"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
-    </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>25</v>
       </c>
@@ -2940,7 +2290,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="44"/>
@@ -2964,43 +2314,8 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="44"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="44"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="44"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="44"/>
-    </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
         <v>48</v>
@@ -3019,7 +2334,7 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I18" s="44"/>
@@ -3043,43 +2358,8 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="44"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="44"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="44"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="44"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="44"/>
-      <c r="BK18" s="44"/>
-      <c r="BL18" s="44"/>
-    </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
         <v>47</v>
@@ -3098,7 +2378,7 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I19" s="44"/>
@@ -3122,43 +2402,8 @@
       <c r="AA19" s="44"/>
       <c r="AB19" s="44"/>
       <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="44"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="44"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
-    </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="81" t="s">
         <v>49</v>
@@ -3177,7 +2422,7 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I20" s="44"/>
@@ -3201,43 +2446,8 @@
       <c r="AA20" s="44"/>
       <c r="AB20" s="44"/>
       <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-    </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>55</v>
@@ -3256,7 +2466,7 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I21" s="44"/>
@@ -3280,43 +2490,8 @@
       <c r="AA21" s="44"/>
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
-    </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
         <v>25</v>
       </c>
@@ -3329,7 +2504,7 @@
       <c r="F22" s="36"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="44"/>
@@ -3353,43 +2528,8 @@
       <c r="AA22" s="44"/>
       <c r="AB22" s="44"/>
       <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
-    </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
         <v>51</v>
@@ -3408,7 +2548,7 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I23" s="44"/>
@@ -3432,43 +2572,8 @@
       <c r="AA23" s="44"/>
       <c r="AB23" s="44"/>
       <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
-      <c r="BL23" s="44"/>
-    </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
         <v>52</v>
@@ -3487,7 +2592,7 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I24" s="44"/>
@@ -3511,43 +2616,8 @@
       <c r="AA24" s="44"/>
       <c r="AB24" s="44"/>
       <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="44"/>
-      <c r="AW24" s="44"/>
-      <c r="AX24" s="44"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="44"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
         <v>54</v>
@@ -3566,7 +2636,7 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I25" s="44"/>
@@ -3590,43 +2660,8 @@
       <c r="AA25" s="44"/>
       <c r="AB25" s="44"/>
       <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-    </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="82" t="s">
         <v>56</v>
@@ -3645,7 +2680,7 @@
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I26" s="44"/>
@@ -3669,43 +2704,8 @@
       <c r="AA26" s="44"/>
       <c r="AB26" s="44"/>
       <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>59</v>
@@ -3724,7 +2724,7 @@
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I27" s="44"/>
@@ -3748,43 +2748,8 @@
       <c r="AA27" s="44"/>
       <c r="AB27" s="44"/>
       <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +2760,7 @@
       <c r="F28" s="69"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" s="44"/>
@@ -3819,43 +2784,8 @@
       <c r="AA28" s="44"/>
       <c r="AB28" s="44"/>
       <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:29" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>26</v>
       </c>
@@ -3868,7 +2798,7 @@
       <c r="F29" s="42"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="46"/>
@@ -3892,65 +2822,25 @@
       <c r="AA29" s="46"/>
       <c r="AB29" s="46"/>
       <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="46"/>
-      <c r="AY29" s="46"/>
-      <c r="AZ29" s="46"/>
-      <c r="BA29" s="46"/>
-      <c r="BB29" s="46"/>
-      <c r="BC29" s="46"/>
-      <c r="BD29" s="46"/>
-      <c r="BE29" s="46"/>
-      <c r="BF29" s="46"/>
-      <c r="BG29" s="46"/>
-      <c r="BH29" s="46"/>
-      <c r="BI29" s="46"/>
-      <c r="BJ29" s="46"/>
-      <c r="BK29" s="46"/>
-      <c r="BL29" s="46"/>
-    </row>
-    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14"/>
       <c r="F31" s="60"/>
     </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="BF4:BL4"/>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D29">
     <cfRule type="dataBar" priority="14">
@@ -3966,17 +2856,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL29">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:AB29">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL29">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:AB29">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC29">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>AND(TODAY()&gt;=AC$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7:AC29">
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(task_start&lt;=AC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AC$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
